--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,8 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Types de structures.
-Organization types</t>
+    <t>Types de structures</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -112,64 +111,28 @@
     <t>Groupement hospitalier de territoire</t>
   </si>
   <si>
-    <t>LEGAL-ENTITY</t>
-  </si>
-  <si>
-    <t>Entité juridique</t>
-  </si>
-  <si>
-    <t>GEOGRAPHICAL-ENTITY</t>
-  </si>
-  <si>
-    <t>Entité géographique</t>
-  </si>
-  <si>
     <t>GROUP</t>
   </si>
   <si>
     <t>Groupe privé / hospitalier</t>
   </si>
   <si>
-    <t>HEBERGEMENT</t>
-  </si>
-  <si>
-    <t>Hébergement</t>
-  </si>
-  <si>
-    <t>SOIN</t>
-  </si>
-  <si>
-    <t>Soin</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIF</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>MEDICAL</t>
-  </si>
-  <si>
-    <t>Médical</t>
-  </si>
-  <si>
-    <t>TECHNIQUE</t>
-  </si>
-  <si>
-    <t>Technique</t>
-  </si>
-  <si>
-    <t>MEDICOTEC</t>
-  </si>
-  <si>
-    <t>medico technique (radio, scanner …)</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>Unité fonctionnelle</t>
+    <t>STRUCT-INTERNE</t>
+  </si>
+  <si>
+    <t>Structure interne</t>
+  </si>
+  <si>
+    <t>SECTEUR</t>
+  </si>
+  <si>
+    <t>Secteur</t>
+  </si>
+  <si>
+    <t>DEPARTEMENT</t>
+  </si>
+  <si>
+    <t>Département</t>
   </si>
   <si>
     <t>SERVICE</t>
@@ -182,12 +145,6 @@
   </si>
   <si>
     <t>Unité médicale</t>
-  </si>
-  <si>
-    <t>UAC</t>
-  </si>
-  <si>
-    <t>Unité d'activité</t>
   </si>
   <si>
     <t>POLE</t>
@@ -489,7 +446,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -592,71 +549,15 @@
         <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
+++ b/main/ig/ValueSet-fr-core-vs-organization-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
